--- a/data-raw/hrmis_data_dictionary.xlsx
+++ b/data-raw/hrmis_data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/iedochie_worldbank_org/Documents/Documents/GitProjects/hrmistools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{19A0EA07-B73B-431C-B448-63D81EB501B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE50BF45-88F0-4CBF-8850-E8F22AE16952}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{19A0EA07-B73B-431C-B448-63D81EB501B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A50A4371-EF4A-4192-A449-A82BD91CF5D6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="Contract" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="197">
   <si>
     <t>Concept Name</t>
   </si>
@@ -405,9 +406,6 @@
     <t>Worker associated with this contract.</t>
   </si>
   <si>
-    <t>Links to Worker.worker_id</t>
-  </si>
-  <si>
     <t>Employer organization associated with the contract.</t>
   </si>
   <si>
@@ -417,9 +415,6 @@
     <t>Base Salary</t>
   </si>
   <si>
-    <t>base_salary</t>
-  </si>
-  <si>
     <t>Basic pay before allowances and deductions.</t>
   </si>
   <si>
@@ -435,9 +430,6 @@
     <t>Gross Salary</t>
   </si>
   <si>
-    <t>gross_salary</t>
-  </si>
-  <si>
     <t>Total compensation before taxes and deductions.</t>
   </si>
   <si>
@@ -447,30 +439,12 @@
     <t>Net Salary</t>
   </si>
   <si>
-    <t>net_salary</t>
-  </si>
-  <si>
     <t>Take-home pay after taxes and deductions.</t>
   </si>
   <si>
     <t>4500.00</t>
   </si>
   <si>
-    <t>Contract Type</t>
-  </si>
-  <si>
-    <t>contract_type</t>
-  </si>
-  <si>
-    <t>Type of employment contract (short-term, open-term, permanent).</t>
-  </si>
-  <si>
-    <t>Codelist: CONTRACT_TYPE</t>
-  </si>
-  <si>
-    <t>Permanent</t>
-  </si>
-  <si>
     <t>Occupation (Native)</t>
   </si>
   <si>
@@ -583,6 +557,63 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Allowance</t>
+  </si>
+  <si>
+    <t>allowance_lcu</t>
+  </si>
+  <si>
+    <t>base_salary_lcu</t>
+  </si>
+  <si>
+    <t>gross_salary_lcu</t>
+  </si>
+  <si>
+    <t>net_salary_lcu</t>
+  </si>
+  <si>
+    <t>Allowances after salary has been paid</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Contract Type Code</t>
+  </si>
+  <si>
+    <t>contract_type_code</t>
+  </si>
+  <si>
+    <t>Codelist: CONTRACT_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>Type of employment contract (PERM, FTERM, TEMP for active workers; INACTIVE, PENSIONERS for active workers)</t>
+  </si>
+  <si>
+    <t>Contract Type (Native)</t>
+  </si>
+  <si>
+    <t>contract_type_native</t>
+  </si>
+  <si>
+    <t>Type of employment conttract in native language</t>
+  </si>
+  <si>
+    <t>PERM</t>
+  </si>
+  <si>
+    <t>INACTIVE</t>
   </si>
 </sst>
 </file>
@@ -658,6 +689,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -948,7 +983,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,15 +1798,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1788,19 +1833,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -1817,16 +1859,16 @@
         <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>185</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1843,19 +1885,16 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1863,7 +1902,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1872,19 +1911,16 @@
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1892,7 +1928,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -1901,128 +1937,128 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>187</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
       </c>
       <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" t="s">
         <v>124</v>
       </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
         <v>131</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E7" t="s">
         <v>132</v>
       </c>
-      <c r="D6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" t="s">
         <v>124</v>
       </c>
-      <c r="I6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H7" t="s">
         <v>136</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>137</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
         <v>138</v>
       </c>
-      <c r="D7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" t="s">
         <v>124</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" t="s">
         <v>124</v>
       </c>
-      <c r="I8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
       <c r="H9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2031,24 +2067,24 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>187</v>
+      </c>
+      <c r="G10" t="s">
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -2057,24 +2093,24 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>187</v>
+      </c>
+      <c r="G11" t="s">
+        <v>124</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -2083,76 +2119,76 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>187</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
       </c>
       <c r="H12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" t="s">
         <v>124</v>
       </c>
-      <c r="I12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
       <c r="H13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" t="s">
         <v>124</v>
       </c>
-      <c r="I13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
       <c r="H14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
@@ -2161,154 +2197,154 @@
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>187</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
       </c>
       <c r="H15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" t="s">
         <v>124</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
         <v>174</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C19" t="s">
         <v>175</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
         <v>176</v>
       </c>
-      <c r="D16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
         <v>124</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
         <v>124</v>
       </c>
-      <c r="I17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>118</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>119</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -2317,39 +2353,91 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>124</v>
       </c>
       <c r="H21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
         <v>124</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>42</v>
       </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
         <v>124</v>
       </c>
-      <c r="I22" t="s">
+      <c r="H23" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24">
+        <v>2325.34</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/hrmis_data_dictionary.xlsx
+++ b/data-raw/hrmis_data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/iedochie_worldbank_org/Documents/Documents/GitProjects/hrmistools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{19A0EA07-B73B-431C-B448-63D81EB501B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A50A4371-EF4A-4192-A449-A82BD91CF5D6}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{19A0EA07-B73B-431C-B448-63D81EB501B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC697C7F-5A70-4B9E-937A-4B76A6B6F7DA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3510" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="Contract" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="182">
   <si>
     <t>Concept Name</t>
   </si>
@@ -277,36 +276,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Educational Attainment (4-level)</t>
-  </si>
-  <si>
-    <t>educat4</t>
-  </si>
-  <si>
-    <t>Educational attainment in 4-level classification.</t>
-  </si>
-  <si>
-    <t>Codelist: EDUC4</t>
-  </si>
-  <si>
-    <t>Tertiary</t>
-  </si>
-  <si>
-    <t>Educational Attainment (5-level)</t>
-  </si>
-  <si>
-    <t>educat5</t>
-  </si>
-  <si>
-    <t>Educational attainment in 5-level classification.</t>
-  </si>
-  <si>
-    <t>Codelist: EDUC5</t>
-  </si>
-  <si>
-    <t>Upper Secondary</t>
-  </si>
-  <si>
     <t>Educational Attainment (7-level)</t>
   </si>
   <si>
@@ -320,21 +289,6 @@
   </si>
   <si>
     <t>Primary completed</t>
-  </si>
-  <si>
-    <t>Educational Attainment (10-level)</t>
-  </si>
-  <si>
-    <t>educat10</t>
-  </si>
-  <si>
-    <t>Educational attainment in 10-level classification.</t>
-  </si>
-  <si>
-    <t>Codelist: EDUC10</t>
-  </si>
-  <si>
-    <t>Postgraduate degree</t>
   </si>
   <si>
     <t>Tribe</t>
@@ -1322,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,7 +1499,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -1554,24 +1508,24 @@
         <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
         <v>94</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>95</v>
       </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1580,24 +1534,24 @@
         <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
         <v>99</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>100</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>102</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1606,24 +1560,24 @@
         <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1632,18 +1586,18 @@
         <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1658,24 +1612,24 @@
         <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1684,24 +1638,24 @@
         <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1710,84 +1664,6 @@
         <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1800,7 +1676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1833,7 +1709,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -1844,13 +1720,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1859,13 +1735,13 @@
         <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1876,7 +1752,7 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1885,10 +1761,10 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H3" t="s">
         <v>71</v>
@@ -1902,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1911,10 +1787,10 @@
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -1928,7 +1804,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -1937,10 +1813,10 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -1948,117 +1824,117 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" t="s">
         <v>124</v>
-      </c>
-      <c r="H8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H9" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2067,24 +1943,24 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H10" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -2093,24 +1969,24 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -2119,24 +1995,24 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -2145,50 +2021,50 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
@@ -2197,24 +2073,24 @@
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
@@ -2223,50 +2099,50 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H17" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -2275,39 +2151,39 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H18" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2318,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -2327,10 +2203,10 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H20" t="s">
         <v>53</v>
@@ -2344,7 +2220,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -2353,10 +2229,10 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H21" t="s">
         <v>57</v>
@@ -2370,7 +2246,7 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -2379,10 +2255,10 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -2405,10 +2281,10 @@
         <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H23" t="s">
         <v>65</v>
@@ -2416,25 +2292,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H24">
         <v>2325.34</v>
